--- a/MDI_Interface/Data/ButtonDescriptions.xlsx
+++ b/MDI_Interface/Data/ButtonDescriptions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Concr3de\Desktop\git\Mammoth\MDI_Interface\MDI_Interface\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nikhi\Desktop\MDI_Interface\MDI_Interface\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C01994FA-35D9-4BD0-B012-9170D6BCBA4C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ACD6BBE-67A5-47BB-9C16-9CCD4E86C60D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="11385" xr2:uid="{9976E23A-BEC0-4A3C-B0FF-62A0602B5863}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{9976E23A-BEC0-4A3C-B0FF-62A0602B5863}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="125">
   <si>
     <t>Button Name</t>
   </si>
@@ -374,6 +374,42 @@
   </si>
   <si>
     <t>Row which are marked are containing not updated addresses</t>
+  </si>
+  <si>
+    <t>PMCAXISON</t>
+  </si>
+  <si>
+    <t>PMC AXIS ON</t>
+  </si>
+  <si>
+    <t>0102.4</t>
+  </si>
+  <si>
+    <t>1005.1</t>
+  </si>
+  <si>
+    <t>RecoaterRollerOn</t>
+  </si>
+  <si>
+    <t>RecoaterRollerOff</t>
+  </si>
+  <si>
+    <t>Recoater roller ON</t>
+  </si>
+  <si>
+    <t>Recoater roller OFF</t>
+  </si>
+  <si>
+    <t>0102.5</t>
+  </si>
+  <si>
+    <t>1005.2</t>
+  </si>
+  <si>
+    <t>0103.2</t>
+  </si>
+  <si>
+    <t>1000.4</t>
   </si>
 </sst>
 </file>
@@ -805,22 +841,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{100261E6-51B2-46AE-BD2E-D8C65A3BB473}">
-  <dimension ref="A1:J29"/>
+  <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.33203125" customWidth="1"/>
+    <col min="2" max="2" width="16" customWidth="1"/>
+    <col min="3" max="3" width="13.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="81.7109375" customWidth="1"/>
+    <col min="7" max="7" width="81.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>52</v>
       </c>
@@ -837,7 +873,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>53</v>
       </c>
@@ -854,7 +890,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>54</v>
       </c>
@@ -871,7 +907,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>55</v>
       </c>
@@ -888,7 +924,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>56</v>
       </c>
@@ -905,7 +941,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>57</v>
       </c>
@@ -920,7 +956,7 @@
       </c>
       <c r="E6" s="7"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>58</v>
       </c>
@@ -941,7 +977,7 @@
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>59</v>
       </c>
@@ -956,7 +992,7 @@
       </c>
       <c r="E8" s="7"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>60</v>
       </c>
@@ -971,7 +1007,7 @@
       </c>
       <c r="E9" s="7"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>61</v>
       </c>
@@ -985,7 +1021,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
         <v>79</v>
       </c>
@@ -1000,7 +1036,7 @@
       </c>
       <c r="E11" s="7"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
         <v>62</v>
       </c>
@@ -1015,7 +1051,7 @@
       </c>
       <c r="E12" s="7"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
         <v>63</v>
       </c>
@@ -1030,7 +1066,7 @@
       </c>
       <c r="E13" s="7"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
         <v>65</v>
       </c>
@@ -1045,7 +1081,7 @@
       </c>
       <c r="E14" s="7"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
         <v>64</v>
       </c>
@@ -1060,7 +1096,7 @@
       </c>
       <c r="E15" s="7"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
         <v>66</v>
       </c>
@@ -1075,7 +1111,7 @@
       </c>
       <c r="E16" s="7"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
         <v>67</v>
       </c>
@@ -1090,7 +1126,7 @@
       </c>
       <c r="E17" s="7"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
         <v>68</v>
       </c>
@@ -1105,7 +1141,7 @@
       </c>
       <c r="E18" s="7"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
         <v>69</v>
       </c>
@@ -1120,7 +1156,7 @@
       </c>
       <c r="E19" s="7"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="s">
         <v>70</v>
       </c>
@@ -1135,7 +1171,7 @@
       </c>
       <c r="E20" s="7"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
         <v>71</v>
       </c>
@@ -1150,7 +1186,7 @@
       </c>
       <c r="E21" s="7"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="6" t="s">
         <v>72</v>
       </c>
@@ -1165,7 +1201,7 @@
       </c>
       <c r="E22" s="7"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
         <v>73</v>
       </c>
@@ -1180,7 +1216,7 @@
       </c>
       <c r="E23" s="7"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
         <v>23</v>
       </c>
@@ -1194,7 +1230,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="6" t="s">
         <v>24</v>
       </c>
@@ -1208,7 +1244,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="6" t="s">
         <v>25</v>
       </c>
@@ -1222,7 +1258,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="6" t="s">
         <v>74</v>
       </c>
@@ -1236,7 +1272,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="6" t="s">
         <v>75</v>
       </c>
@@ -1250,7 +1286,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="6" t="s">
         <v>76</v>
       </c>
@@ -1262,6 +1298,48 @@
       </c>
       <c r="D29" s="4" t="s">
         <v>49</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="B30" t="s">
+        <v>114</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>117</v>
+      </c>
+      <c r="B31" t="s">
+        <v>119</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>118</v>
+      </c>
+      <c r="B32" t="s">
+        <v>120</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -1282,9 +1360,9 @@
       <selection activeCell="A2" sqref="A2:E30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
         <v>50</v>
       </c>
